--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S17/S17_lossmod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S17/S17_lossmod.xlsx
@@ -14,156 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.01593329818837436</t>
-  </si>
-  <si>
-    <t>0.02471647998122277</t>
-  </si>
-  <si>
-    <t>0.03832643352204457</t>
-  </si>
-  <si>
-    <t>0.05943595284513168</t>
-  </si>
-  <si>
-    <t>0.09370876505250891</t>
-  </si>
-  <si>
-    <t>0.1477208524255917</t>
-  </si>
-  <si>
-    <t>0.22919042672424259</t>
-  </si>
-  <si>
-    <t>0.35554751673580137</t>
-  </si>
-  <si>
-    <t>0.5606430767882784</t>
-  </si>
-  <si>
-    <t>0.8842823055571033</t>
-  </si>
-  <si>
-    <t>1.39434859545832</t>
-  </si>
-  <si>
-    <t>2.1296723472133494</t>
-  </si>
-  <si>
-    <t>3.359995560449407</t>
-  </si>
-  <si>
-    <t>5.21572357813525</t>
-  </si>
-  <si>
-    <t>8.364716903426535</t>
-  </si>
-  <si>
-    <t>13.202507659468152</t>
-  </si>
-  <si>
-    <t>20.168621435907312</t>
-  </si>
-  <si>
-    <t>32.36303701561412</t>
-  </si>
-  <si>
-    <t>50.26903433660952</t>
-  </si>
-  <si>
-    <t>79.3636039111725</t>
-  </si>
-  <si>
-    <t>123.28910486967426</t>
-  </si>
-  <si>
-    <t>191.52229781161176</t>
-  </si>
-  <si>
-    <t>302.3891505005754</t>
-  </si>
-  <si>
-    <t>469.8577412704367</t>
-  </si>
-  <si>
-    <t>318.98288223800927</t>
-  </si>
-  <si>
-    <t>450.6940256564732</t>
-  </si>
-  <si>
-    <t>686.368636339774</t>
-  </si>
-  <si>
-    <t>1027.351205328416</t>
-  </si>
-  <si>
-    <t>1478.2342077289386</t>
-  </si>
-  <si>
-    <t>2193.4412403584724</t>
-  </si>
-  <si>
-    <t>2999.4876756638564</t>
-  </si>
-  <si>
-    <t>4200.154756470099</t>
-  </si>
-  <si>
-    <t>5890.573367726813</t>
-  </si>
-  <si>
-    <t>7848.483947039501</t>
-  </si>
-  <si>
-    <t>11048.217024004738</t>
-  </si>
-  <si>
-    <t>13357.269723976597</t>
-  </si>
-  <si>
-    <t>16864.31185721853</t>
-  </si>
-  <si>
-    <t>20907.8638579463</t>
-  </si>
-  <si>
-    <t>26168.68167875183</t>
-  </si>
-  <si>
-    <t>30515.708744875432</t>
-  </si>
-  <si>
-    <t>35634.039025952035</t>
-  </si>
-  <si>
-    <t>40163.822063886095</t>
-  </si>
-  <si>
-    <t>44071.69471935107</t>
-  </si>
-  <si>
-    <t>48824.44278120111</t>
-  </si>
-  <si>
-    <t>52353.193650012225</t>
-  </si>
-  <si>
-    <t>56353.237222264484</t>
-  </si>
-  <si>
-    <t>61714.4691138564</t>
-  </si>
-  <si>
-    <t>63393.79060413729</t>
+    <t>Loss modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -536,195 +392,195 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
+      <c r="A2">
+        <v>0.01593329818837436</v>
+      </c>
+      <c r="B2">
+        <v>318.9828822380093</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
+      <c r="A3">
+        <v>0.02471647998122277</v>
+      </c>
+      <c r="B3">
+        <v>450.6940256564732</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
+      <c r="A4">
+        <v>0.03832643352204457</v>
+      </c>
+      <c r="B4">
+        <v>686.368636339774</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
+      <c r="A5">
+        <v>0.05943595284513168</v>
+      </c>
+      <c r="B5">
+        <v>1027.351205328416</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
+      <c r="A6">
+        <v>0.09370876505250891</v>
+      </c>
+      <c r="B6">
+        <v>1478.234207728939</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
+      <c r="A7">
+        <v>0.1477208524255917</v>
+      </c>
+      <c r="B7">
+        <v>2193.441240358472</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>32</v>
+      <c r="A8">
+        <v>0.2291904267242426</v>
+      </c>
+      <c r="B8">
+        <v>2999.487675663856</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
+      <c r="A9">
+        <v>0.3555475167358014</v>
+      </c>
+      <c r="B9">
+        <v>4200.154756470099</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>34</v>
+      <c r="A10">
+        <v>0.5606430767882784</v>
+      </c>
+      <c r="B10">
+        <v>5890.573367726813</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
+      <c r="A11">
+        <v>0.8842823055571033</v>
+      </c>
+      <c r="B11">
+        <v>7848.483947039501</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
+      <c r="A12">
+        <v>1.39434859545832</v>
+      </c>
+      <c r="B12">
+        <v>11048.21702400474</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
+      <c r="A13">
+        <v>2.129672347213349</v>
+      </c>
+      <c r="B13">
+        <v>13357.2697239766</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
+      <c r="A14">
+        <v>3.359995560449407</v>
+      </c>
+      <c r="B14">
+        <v>16864.31185721853</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>39</v>
+      <c r="A15">
+        <v>5.21572357813525</v>
+      </c>
+      <c r="B15">
+        <v>20907.8638579463</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
+      <c r="A16">
+        <v>8.364716903426535</v>
+      </c>
+      <c r="B16">
+        <v>26168.68167875183</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
+      <c r="A17">
+        <v>13.20250765946815</v>
+      </c>
+      <c r="B17">
+        <v>30515.70874487543</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
+      <c r="A18">
+        <v>20.16862143590731</v>
+      </c>
+      <c r="B18">
+        <v>35634.03902595204</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
+      <c r="A19">
+        <v>32.36303701561412</v>
+      </c>
+      <c r="B19">
+        <v>40163.82206388609</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
+      <c r="A20">
+        <v>50.26903433660952</v>
+      </c>
+      <c r="B20">
+        <v>44071.69471935107</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
+      <c r="A21">
+        <v>79.3636039111725</v>
+      </c>
+      <c r="B21">
+        <v>48824.44278120111</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>46</v>
+      <c r="A22">
+        <v>123.2891048696743</v>
+      </c>
+      <c r="B22">
+        <v>52353.19365001222</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>47</v>
+      <c r="A23">
+        <v>191.5222978116118</v>
+      </c>
+      <c r="B23">
+        <v>56353.23722226448</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
+      <c r="A24">
+        <v>302.3891505005754</v>
+      </c>
+      <c r="B24">
+        <v>61714.4691138564</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
+      <c r="A25">
+        <v>469.8577412704367</v>
+      </c>
+      <c r="B25">
+        <v>63393.79060413729</v>
       </c>
     </row>
   </sheetData>
